--- a/model_exports/labels/2.0_False_False_6_4.xlsx
+++ b/model_exports/labels/2.0_False_False_6_4.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-504042718663036928</t>
+          <t>t-494463913853874176</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-504366068648148992</t>
+          <t>t-494829977268146176</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-504850389129129984</t>
+          <t>t-495010606047821824</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-504998704118394880</t>
+          <t>t-495017350790668289</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,20 +505,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-501732075599593472</t>
+          <t>t-495805012929708033</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-561169293573115904</t>
+          <t>t-497139824780787712</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-571473938481602560</t>
+          <t>t-497141925451792384</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-599446630732079104</t>
+          <t>t-497161697371893760</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-610974241895354368</t>
+          <t>t-497242468627124224</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-624374054338867201</t>
+          <t>t-497474058641215489</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-627039115188383744</t>
+          <t>t-497485019451883520</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,24 +596,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-759240736864870400</t>
+          <t>t-504042718663036928</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-760665387113472001</t>
+          <t>t-504366068648148992</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,20 +622,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-760674522622152704</t>
+          <t>t-504850389129129984</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-833214575512150018</t>
+          <t>t-504998704118394880</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-1027818664391847936</t>
+          <t>t-509432328561885184</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-1027909740905553920</t>
+          <t>t-501732075599593472</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,11 +674,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-501433457286053889</t>
+          <t>t-760665387113472001</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-501490224640573440</t>
+          <t>t-760674522622152704</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,24 +700,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-681917420068564992</t>
+          <t>t-1047160746386382848</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-682618491283857408</t>
+          <t>t-501433457286053889</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-701855843747241986</t>
+          <t>t-501490224640573440</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,46 +739,46 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-719525216439910400</t>
+          <t>t-583290347863851008</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-719704738913083392</t>
+          <t>t-658615758751211520</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-756508260925075456</t>
+          <t>t-658616745809330176</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-767329938500308992</t>
+          <t>t-658617481574092800</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,24 +791,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-815615714082095105</t>
+          <t>t-683960479224586240</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-816012131535613952</t>
+          <t>t-684033292694327296</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -817,20 +817,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-816043428630839296</t>
+          <t>t-684082364117585920</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-816046695377158145</t>
+          <t>t-684154242035089408</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,11 +843,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-816056629867188225</t>
+          <t>t-694942679688437760</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -856,11 +856,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-816367923770118149</t>
+          <t>t-695354495606259712</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-816380623434592257</t>
+          <t>t-696194593700712448</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,33 +882,33 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-867771334083923968</t>
+          <t>t-707911328145477632</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-871116400701706241</t>
+          <t>t-707931200627875840</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-871834189787791364</t>
+          <t>t-708036809603698689</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-872075702203559936</t>
+          <t>t-708038329514790912</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,20 +934,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-872158265681096708</t>
+          <t>t-708041345638776832</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-876890893143298050</t>
+          <t>t-708249950530961408</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,20 +960,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-876899745704415232</t>
+          <t>t-708273072424554497</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-876909191105048577</t>
+          <t>t-708363296160747520</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-876910840670302209</t>
+          <t>t-708384601509601280</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,33 +999,33 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-876983597760172032</t>
+          <t>t-708389352393539585</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-877064271393370112</t>
+          <t>t-708444180087971840</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-877647799629733893</t>
+          <t>t-709190294621835264</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,11 +1038,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-877649383340298240</t>
+          <t>t-709228058117480449</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-878107705168334848</t>
+          <t>t-709405662791372802</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,7 +1064,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-878263651773407233</t>
+          <t>t-709892861110657024</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,7 +1077,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-878265674975461376</t>
+          <t>t-710265095104946176</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-878542338414362624</t>
+          <t>t-798305189924982784</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-880275227367821312</t>
+          <t>t-854007994534813696</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,63 +1116,63 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-894637864561987584</t>
+          <t>t-871116400701706241</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-894643508547526657</t>
+          <t>t-871834189787791364</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-894960674811596800</t>
+          <t>t-872075702203559936</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-894974152540553216</t>
+          <t>t-872158265681096708</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-894976401597763584</t>
+          <t>t-894637864561987584</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1181,7 +1181,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-895262760954736640</t>
+          <t>t-894643508547526657</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,24 +1194,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-900539002423562240</t>
+          <t>t-894960674811596800</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-900561270843334662</t>
+          <t>t-894974152540553216</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1220,7 +1220,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-900690069668933632</t>
+          <t>t-894976401597763584</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,7 +1233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-902187406123835394</t>
+          <t>t-895262760954736640</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,7 +1246,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-902225607563644928</t>
+          <t>t-900539002423562240</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,46 +1259,46 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-922305869466890240</t>
+          <t>t-900561270843334662</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-956711426009202688</t>
+          <t>t-900690069668933632</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-960921688975331329</t>
+          <t>t-945777508007464961</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-961028171192852485</t>
+          <t>t-950310866641149952</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,76 +1311,76 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-961254369663602688</t>
+          <t>t-960921688975331329</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1018804138195513344</t>
+          <t>t-961028171192852485</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-1018807229267496962</t>
+          <t>t-961254369663602688</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-1018819644377923585</t>
+          <t>t-970872683402539011</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-1018962868379750402</t>
+          <t>t-977248381662892039</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1019003195874512897</t>
+          <t>t-977294782048428032</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1389,33 +1389,33 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-1019014466770333697</t>
+          <t>t-1018804138195513344</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-1019698120098222080</t>
+          <t>t-1018807229267496962</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1028763648074940416</t>
+          <t>t-1018819644377923585</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,33 +1428,33 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1028815266174517249</t>
+          <t>t-1018962868379750402</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1028873828355780608</t>
+          <t>t-1019003195874512897</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1029034881769197569</t>
+          <t>t-1019014466770333697</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,11 +1467,11 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-1029100538422587393</t>
+          <t>t-1019698120098222080</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1480,20 +1480,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-832760057259384834</t>
+          <t>t-1028763648074940416</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-832777578633064449</t>
+          <t>t-1028815266174517249</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,11 +1506,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-975411428663345152</t>
+          <t>t-1028873828355780608</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-762401879758372864</t>
+          <t>t-1029034881769197569</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,7 +1532,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-762402279601344512</t>
+          <t>t-1029100538422587393</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,33 +1545,33 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-762404827229892608</t>
+          <t>t-812540411746975744</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-819315426853273600</t>
+          <t>t-822160325608734720</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-922536592429993985</t>
+          <t>t-822824168110493696</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,20 +1584,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-985698935074369536</t>
+          <t>t-823329247884251137</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-1012224879310057472</t>
+          <t>t-762401879758372864</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,20 +1610,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-1026541253037453312</t>
+          <t>t-762402279601344512</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-1026546271392165888</t>
+          <t>t-762404827229892608</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,50 +1636,50 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-1026556162186117121</t>
+          <t>t-922536592429993985</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-1026678249978585088</t>
+          <t>t-985698935074369536</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1026720073308925953</t>
+          <t>t-517568253363634176</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-582884078073987072</t>
+          <t>t-518546395729379328</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1688,24 +1688,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-582893069168611328</t>
+          <t>t-519264703466315776</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-685243474623336449</t>
+          <t>t-533166195508117505</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1714,20 +1714,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-687924478219685888</t>
+          <t>t-538622557084082176</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-687934498701455360</t>
+          <t>t-582884078073987072</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,24 +1740,24 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-730338940872445952</t>
+          <t>t-582893069168611328</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-731342823132274688</t>
+          <t>t-730338940872445952</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1766,11 +1766,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-770981711182237696</t>
+          <t>t-731342823132274688</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1779,24 +1779,24 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-928952366598037506</t>
+          <t>t-768798517900906496</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-987586031829569536</t>
+          <t>t-903960318652669952</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1805,20 +1805,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-987647086475673600</t>
+          <t>t-903973451970392064</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-987928780621668352</t>
+          <t>t-1017282491193782272</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-1015939762513956864</t>
+          <t>t-1049900608294137856</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,7 +1844,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1017282491193782272</t>
+          <t>t-506695122298212352</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,72 +1857,72 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-1047054739547013120</t>
+          <t>t-612750086443917313</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-1047068713986547712</t>
+          <t>t-788842589554343938</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-1047079117244399617</t>
+          <t>t-878279115006136321</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-1047083573738500096</t>
+          <t>t-885277243991314432</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-610241505777856512</t>
+          <t>t-885292685086646272</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-610629417715412992</t>
+          <t>t-618057796345593856</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,11 +1935,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-847556586600095745</t>
+          <t>t-676063553162379265</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-979396065278427139</t>
+          <t>t-752623570010812416</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,11 +1961,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-1006061673487138817</t>
+          <t>t-752689111933214722</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-618057796345593856</t>
+          <t>t-752696262009450496</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,11 +1987,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-639446444949180417</t>
+          <t>t-752724839081791488</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2000,46 +2000,46 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-747995724978192384</t>
+          <t>t-824338590389960704</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-752623570010812416</t>
+          <t>t-876870634885844994</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-752689111933214722</t>
+          <t>t-876897987485630464</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-752696262009450496</t>
+          <t>t-876995236253376512</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,11 +2052,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-752724839081791488</t>
+          <t>t-512768543989825541</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2065,11 +2065,11 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-876870634885844994</t>
+          <t>t-764358428777078784</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -2078,11 +2078,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-876897987485630464</t>
+          <t>t-587673014826741760</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -2091,11 +2091,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-876995236253376512</t>
+          <t>t-587688170382163969</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2104,20 +2104,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-903082857492566018</t>
+          <t>t-1027386544536150016</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-611854657594486784</t>
+          <t>t-623339394989166593</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,7 +2130,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-567811309744705538</t>
+          <t>t-641288611472654336</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,7 +2143,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-580481361141743616</t>
+          <t>t-697497279213625344</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,11 +2156,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-585851418843615232</t>
+          <t>t-697558252012355585</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,37 +2169,37 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-697497279213625344</t>
+          <t>t-878362748232622081</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-697558252012355585</t>
+          <t>t-966707160049766400</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-832310546871484416</t>
+          <t>t-967596306297483265</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,20 +2208,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-868226298719633408</t>
+          <t>t-967763105525764097</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-966707160049766400</t>
+          <t>t-967806729865060352</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-967596306297483265</t>
+          <t>t-967827685333454849</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,7 +2247,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-967763105525764097</t>
+          <t>t-968065709459750912</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2260,24 +2260,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-967806729865060352</t>
+          <t>t-968790557077262336</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-967827685333454849</t>
+          <t>t-953648628647706624</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2286,11 +2286,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-968065709459750912</t>
+          <t>t-536361968840769536</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2299,20 +2299,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-968790557077262336</t>
+          <t>t-575924078906904576</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-978735824383590400</t>
+          <t>t-630358013853990912</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,20 +2325,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-672497431242756096</t>
+          <t>t-743488475874353153</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-681802042885697536</t>
+          <t>t-743501818358042625</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,7 +2351,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-682128192019234816</t>
+          <t>t-818386811332558848</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,128 +2364,128 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-682147581405859841</t>
+          <t>t-818898970961473536</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-682223092198936576</t>
+          <t>t-887680971797131264</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-682287065824931840</t>
+          <t>t-887683274591662080</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-682459381347254272</t>
+          <t>t-887690953800253442</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-682632199527641089</t>
+          <t>t-887715764404449281</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-682755737790099456</t>
+          <t>t-887751540173414404</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-682908634020470785</t>
+          <t>t-887923666507489280</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-682915879026339840</t>
+          <t>t-887928668626055169</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-683017640638582784</t>
+          <t>t-887976731767918592</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-683036658942513152</t>
+          <t>t-888083621801844737</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-683077568287866880</t>
+          <t>t-915529742002135041</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,24 +2507,24 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-683235960692314112</t>
+          <t>t-915535227245776896</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-683258563628777472</t>
+          <t>t-926892709188702208</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -2533,7 +2533,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-683386799184543745</t>
+          <t>t-1031843897373278208</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,11 +2546,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-683399457254326272</t>
+          <t>t-543357722591514624</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2559,24 +2559,24 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-683602691965206528</t>
+          <t>t-673151835868430336</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-683628764622905344</t>
+          <t>t-673156978059968512</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2585,11 +2585,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-683644184683753472</t>
+          <t>t-673168234577838080</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2598,7 +2598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-683649428587155456</t>
+          <t>t-671527403521462276</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,7 +2611,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-683773064040050688</t>
+          <t>t-833840054363619329</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,24 +2624,24 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-683968472968228864</t>
+          <t>t-949552218650365952</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-683979793273065473</t>
+          <t>t-568623295811194880</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2650,24 +2650,24 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-684007082555748352</t>
+          <t>t-778616752993214464</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-684323489562558465</t>
+          <t>t-912821640328773633</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-685408547975331840</t>
+          <t>t-1022207950511923200</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,59 +2689,59 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-568441199297761281</t>
+          <t>t-658242856386187264</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-568878359158984704</t>
+          <t>t-736136204106616832</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-743488475874353153</t>
+          <t>t-821731492581744642</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-743501818358042625</t>
+          <t>t-821745652803764226</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-783792055160082432</t>
+          <t>t-902218968345272321</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-887680971797131264</t>
+          <t>t-1014543719205400576</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,24 +2767,24 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-887683274591662080</t>
+          <t>t-1014578901966876672</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-887690953800253442</t>
+          <t>t-578289267857891328</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-887715764404449281</t>
+          <t>t-603598228022501376</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,63 +2806,63 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-887751540173414404</t>
+          <t>t-607855197835149312</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-887923666507489280</t>
+          <t>t-733769545261944833</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-887928668626055169</t>
+          <t>t-766291748704423936</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-887976731767918592</t>
+          <t>t-891497407179104257</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-888083621801844737</t>
+          <t>t-906974272832376832</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-1014948759934066688</t>
+          <t>t-917499339278254080</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,72 +2884,72 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-665687399033397248</t>
+          <t>t-1001456003551031296</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-949552218650365952</t>
+          <t>t-903173716451909632</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-872693400436219904</t>
+          <t>t-694715871097278464</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-624161549528096768</t>
+          <t>t-890798435175063552</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-912821640328773633</t>
+          <t>t-1022049211108483072</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-595961510528180224</t>
+          <t>t-1022100736476360704</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,11 +2962,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-594613009575579649</t>
+          <t>t-840282206979444737</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-907490044335636480</t>
+          <t>t-840289139450925056</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,33 +2988,33 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-708373253648207873</t>
+          <t>t-875514382276538369</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-764015991344869376</t>
+          <t>t-799981773354463232</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-870660332800397312</t>
+          <t>t-799998393695305728</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-870684149173977089</t>
+          <t>t-800091318642950144</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,11 +3040,11 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-878162982953402368</t>
+          <t>t-860527262709493760</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -3053,20 +3053,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-906974272832376832</t>
+          <t>t-889517070559334400</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-917499339278254080</t>
+          <t>t-1050435927066198018</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,11 +3079,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-948592886060380161</t>
+          <t>t-910451192064614401</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3092,11 +3092,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-972059634101047296</t>
+          <t>t-985241133159796736</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -3105,11 +3105,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-973190028435353600</t>
+          <t>t-507905858265960448</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-756982430985166848</t>
+          <t>t-863311681820258304</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,7 +3131,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-756983738035077120</t>
+          <t>t-997483790145589248</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,24 +3144,24 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-757172169029804034</t>
+          <t>t-997521947297710081</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-700818903744778240</t>
+          <t>t-604384366886834177</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -3170,37 +3170,37 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-784477844240011265</t>
+          <t>t-604797500965265408</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-859838431719030785</t>
+          <t>t-605112787141033985</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-913204200187863040</t>
+          <t>t-605369768720396288</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -3209,7 +3209,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-941641219024748544</t>
+          <t>t-652481072199036928</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,20 +3222,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-962803499766513664</t>
+          <t>t-726041703153545216</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-988107827615952898</t>
+          <t>t-726754497737826305</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,11 +3248,11 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-753685864471863300</t>
+          <t>t-745382805253677057</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -3261,33 +3261,33 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1006535367464509440</t>
+          <t>t-752596726066843648</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1006670876169949190</t>
+          <t>t-753413745230094338</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-707739170878439424</t>
+          <t>t-764530848079155200</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,46 +3300,46 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-872405308236337153</t>
+          <t>t-764927216257949696</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-977485288892059648</t>
+          <t>t-817334752848056320</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-1042035586717110280</t>
+          <t>t-817481338974507010</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1050435927066198018</t>
+          <t>t-913139045009633280</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,59 +3352,59 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-924790802882146304</t>
+          <t>t-913178067195088902</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-599936713796886528</t>
+          <t>t-913438297258708992</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-660036667412082688</t>
+          <t>t-1047282657053298690</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-660641499701489665</t>
+          <t>t-578194227852505088</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-757613409047343105</t>
+          <t>t-643122505524322304</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,11 +3417,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-784456849215123457</t>
+          <t>t-760920272639852545</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
@@ -3430,7 +3430,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-817334752848056320</t>
+          <t>t-760967260039106560</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-817481338974507010</t>
+          <t>t-760972532421984261</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,111 +3456,111 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-870028367990599681</t>
+          <t>t-760978989359833088</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-913139045009633280</t>
+          <t>t-761017815637696513</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-913178067195088902</t>
+          <t>t-761048712214818816</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-913438297258708992</t>
+          <t>t-761049587066867712</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-956329812573945857</t>
+          <t>t-761050328493985794</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-978842874749046784</t>
+          <t>t-761057847262142465</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-979067875213234176</t>
+          <t>t-891394338445553666</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-1036976718718881793</t>
+          <t>t-891401235391066112</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-1047282657053298690</t>
+          <t>t-891671460804259840</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,7 +3573,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-636611275666128896</t>
+          <t>t-891695041609162754</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,20 +3586,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-727306437798576130</t>
+          <t>t-892069950281711617</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-750893641632063488</t>
+          <t>t-892901315642146816</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,33 +3612,33 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1006674770983817217</t>
+          <t>t-1030896472881917952</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-1042832069506871296</t>
+          <t>t-1035948096843395073</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-533830044200599552</t>
+          <t>t-580289963599765504</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,24 +3651,24 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-534294668842766337</t>
+          <t>t-616575922674769920</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-534896855906537472</t>
+          <t>t-616694572853256192</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3677,20 +3677,20 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-836289804664979457</t>
+          <t>t-705116084911763456</t>
         </is>
       </c>
       <c r="B250" t="n">
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-958376851084337153</t>
+          <t>t-716748651113091072</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,24 +3703,24 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-586160130313625600</t>
+          <t>t-716774298296389632</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-638674545726066688</t>
+          <t>t-755726869270523904</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
         <v>1</v>
@@ -3729,33 +3729,33 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-638724428944150528</t>
+          <t>t-757849369496301569</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-639699321500364800</t>
+          <t>t-758572772490637312</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-639804238848237568</t>
+          <t>t-802968858214760448</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,11 +3768,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-660890514741399552</t>
+          <t>t-802970857136123904</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3781,7 +3781,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-661115206525915136</t>
+          <t>t-802986234171768832</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,7 +3794,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-661147212135727104</t>
+          <t>t-802996470555279360</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,7 +3807,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-661201099085377537</t>
+          <t>t-803023904860151808</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,24 +3820,24 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-707575261483687937</t>
+          <t>t-803063479473176576</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-708952691926548480</t>
+          <t>t-803165461336555521</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -3846,33 +3846,33 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-721969035412422656</t>
+          <t>t-803184972723081216</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-722671206881746944</t>
+          <t>t-803191488880513024</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-775760180936048640</t>
+          <t>t-803213114628014080</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,7 +3885,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-775760740204552192</t>
+          <t>t-803415757417758721</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,59 +3898,59 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-775766510182731776</t>
+          <t>t-804486553280069633</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-775772257327128576</t>
+          <t>t-913153226706472965</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-775805122920189952</t>
+          <t>t-968863674306834432</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-776165588917944320</t>
+          <t>t-972048308909826048</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-832931106873819136</t>
+          <t>t-984477965856772096</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,20 +3963,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-841637693608071170</t>
+          <t>t-984491425478971393</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-849475288652238849</t>
+          <t>t-984517270725644288</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,24 +3989,24 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-903533073358352385</t>
+          <t>t-985567499843489798</t>
         </is>
       </c>
       <c r="B274" t="n">
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-903589529143189504</t>
+          <t>t-1039508390869786629</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -4015,11 +4015,11 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-957285309796044800</t>
+          <t>t-1039553624345661440</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -4028,11 +4028,11 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-957305309328039936</t>
+          <t>t-1039619721644191744</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-957621820626276353</t>
+          <t>t-538818433920827392</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,33 +4054,33 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-958690487875055616</t>
+          <t>t-541450804008218624</t>
         </is>
       </c>
       <c r="B279" t="n">
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-1006258184636510210</t>
+          <t>t-754470366408507392</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-1037619174145712128</t>
+          <t>t-903255663417204736</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,20 +4093,20 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-754470366408507392</t>
+          <t>t-646786233809539072</t>
         </is>
       </c>
       <c r="B282" t="n">
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-910953097316376576</t>
+          <t>t-684979291696664576</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,11 +4119,11 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-910955895714123776</t>
+          <t>t-726931802141659137</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-684979291696664576</t>
+          <t>t-833086724096028673</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,11 +4145,11 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-726931802141659137</t>
+          <t>t-836430214368481288</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -4158,11 +4158,11 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-663721804310122496</t>
+          <t>t-549835920762220544</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -4171,85 +4171,85 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-727758683510329344</t>
+          <t>t-578199507671904256</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-727889856274247680</t>
+          <t>t-578943021716250624</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-821117207245713408</t>
+          <t>t-803598066133573632</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-901071860456185856</t>
+          <t>t-561177173151977473</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-951353773321945088</t>
+          <t>t-561426613901209600</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-951370648210767877</t>
+          <t>t-561478083538997248</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-578199507671904256</t>
+          <t>t-561531868710207489</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,20 +4262,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-578943021716250624</t>
+          <t>t-561552888548560899</t>
         </is>
       </c>
       <c r="B295" t="n">
         <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-561177173151977473</t>
+          <t>t-561569968660439040</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,20 +4288,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-561426613901209600</t>
+          <t>t-561719764557774848</t>
         </is>
       </c>
       <c r="B297" t="n">
         <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-561478083538997248</t>
+          <t>t-561830425656852480</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-561531868710207489</t>
+          <t>t-562238606618939392</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-561552888548560899</t>
+          <t>t-562243257879773184</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,7 +4340,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-561569968660439040</t>
+          <t>t-562251699403096064</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,7 +4353,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-561719764557774848</t>
+          <t>t-562279318081269760</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4366,20 +4366,20 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-561830425656852480</t>
+          <t>t-562339945067847680</t>
         </is>
       </c>
       <c r="B303" t="n">
         <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-562238606618939392</t>
+          <t>t-562639830182821889</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,11 +4392,11 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-562243257879773184</t>
+          <t>t-563230595221037057</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -4405,11 +4405,11 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-562251699403096064</t>
+          <t>t-563397372966076416</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -4418,33 +4418,33 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-562279318081269760</t>
+          <t>t-686490326228402176</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-562339945067847680</t>
+          <t>t-687307828932030464</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-562639830182821889</t>
+          <t>t-632590097284734976</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,33 +4457,33 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-563230595221037057</t>
+          <t>t-864137650625753088</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-563397372966076416</t>
+          <t>t-864465975068037122</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-570999709160116224</t>
+          <t>t-864657619700658176</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,33 +4496,33 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-571255966727053312</t>
+          <t>t-913738686994501632</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-791567733695606784</t>
+          <t>t-913756608974540800</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-778893752471543808</t>
+          <t>t-913812012400087040</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,7 +4535,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-778933660334559232</t>
+          <t>t-957965473316069376</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,11 +4548,11 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-788874378666737664</t>
+          <t>t-981529575271337984</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -4561,7 +4561,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-968874912806068224</t>
+          <t>t-998345989382705152</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,24 +4574,24 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-981529575271337984</t>
+          <t>t-571264964683436033</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-998345989382705152</t>
+          <t>t-901999787855228933</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -4600,27 +4600,27 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-850359691771293697</t>
+          <t>t-902015237951549441</t>
         </is>
       </c>
       <c r="B321" t="n">
         <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-900702851202207746</t>
+          <t>t-995839519449640960</t>
         </is>
       </c>
       <c r="B322" t="n">
         <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -4678,20 +4678,20 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-925720058432811008</t>
+          <t>t-686862688752807937</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-686862688752807937</t>
+          <t>t-763085869045653505</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,20 +4704,20 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-763085869045653505</t>
+          <t>t-763088808799797248</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-763088808799797248</t>
+          <t>t-884636889948471296</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,33 +4730,33 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-889534953825779712</t>
+          <t>t-1047526401644138497</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-889639312169500672</t>
+          <t>t-603639937368469504</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-575443997050691585</t>
+          <t>t-604106567907057664</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1050145290718564352</t>
+          <t>t-605045307844337664</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,24 +4782,24 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-580101390820876288</t>
+          <t>t-609930400341725185</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-580474226571915265</t>
+          <t>t-609937116462604289</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-581395014502191104</t>
+          <t>t-669944728155090944</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,24 +4821,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-603639937368469504</t>
+          <t>t-724222646435508224</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-604106567907057664</t>
+          <t>t-774740590848188416</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -4847,11 +4847,11 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-605045307844337664</t>
+          <t>t-860258475883937792</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4860,72 +4860,72 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-609930400341725185</t>
+          <t>t-878774409280016384</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-609937116462604289</t>
+          <t>t-910191038052077569</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-860258475883937792</t>
+          <t>t-610843183715463168</t>
         </is>
       </c>
       <c r="B343" t="n">
         <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-992231007083421698</t>
+          <t>t-880261784304631810</t>
         </is>
       </c>
       <c r="B344" t="n">
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-992892560405250048</t>
+          <t>t-644964294954741760</t>
         </is>
       </c>
       <c r="B345" t="n">
         <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-1028993321757077505</t>
+          <t>t-639559017052803076</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,11 +4938,11 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-1049990926406492160</t>
+          <t>t-1039755728448352257</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -4951,11 +4951,11 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-644964294954741760</t>
+          <t>t-1039888860501688320</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-639100384343101440</t>
+          <t>t-643571264011898881</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,59 +4977,59 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-895489338364055553</t>
+          <t>t-676228752599314434</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-904587230177443840</t>
+          <t>t-676234421217845248</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-905072243822264320</t>
+          <t>t-676358315065016322</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-905081971667296257</t>
+          <t>t-648598850530226176</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-905280030833614849</t>
+          <t>t-765678719205724160</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,7 +5042,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-1041361257410904064</t>
+          <t>t-895489338364055553</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,7 +5055,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-1041679427464298496</t>
+          <t>t-983744396364480512</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,7 +5068,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-803234433000148994</t>
+          <t>t-653702331221999616</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,7 +5081,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-803236909183107073</t>
+          <t>t-660109346915770368</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-803260822801649664</t>
+          <t>t-660117216885477376</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,20 +5107,20 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-803260889940062209</t>
+          <t>t-660467638917660672</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-803271446357282816</t>
+          <t>t-762366384747589634</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,11 +5133,11 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-848401927432019970</t>
+          <t>t-762414153185173504</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -5146,46 +5146,46 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-716262349536149504</t>
+          <t>t-762454271832928257</t>
         </is>
       </c>
       <c r="B363" t="n">
         <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-910172109506273280</t>
+          <t>t-919294420465229824</t>
         </is>
       </c>
       <c r="B364" t="n">
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-1021764160093401089</t>
+          <t>t-1027575306226475008</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-1022188431483387905</t>
+          <t>t-1041361257410904064</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,24 +5198,24 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-1022188766964998144</t>
+          <t>t-1041679427464298496</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-1022577266117824514</t>
+          <t>t-727600217265049600</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -5224,20 +5224,20 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-1023560708376748032</t>
+          <t>t-753352623630278664</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1023767948165562368</t>
+          <t>t-668278058953084928</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,20 +5250,20 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1023931290045829121</t>
+          <t>t-922944953696899072</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-1024052229152669696</t>
+          <t>t-922950403255341056</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,20 +5276,20 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-753754552936136704</t>
+          <t>t-922959565792083968</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-911704954636824576</t>
+          <t>t-863149830931185664</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,24 +5302,24 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-946020250805514240</t>
+          <t>t-692348550416633857</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-971386931857772544</t>
+          <t>t-848401927432019970</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -5328,11 +5328,11 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-996559091932770305</t>
+          <t>t-954775347962241025</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -5341,11 +5341,11 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-922899400032178176</t>
+          <t>t-954792612103442432</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -5354,20 +5354,20 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-922934157185110016</t>
+          <t>t-954866409300987904</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-812266777711431682</t>
+          <t>t-715468390047961088</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,20 +5380,20 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-814665332673703936</t>
+          <t>t-725708603060031489</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-814669018061803521</t>
+          <t>t-733752725972746240</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,7 +5406,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-823317212446556161</t>
+          <t>t-733764949433012224</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,37 +5419,37 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-857651953928744960</t>
+          <t>t-734458703231885312</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-885945201105219584</t>
+          <t>t-829844333205413888</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-885947457330438145</t>
+          <t>t-1016527492478328832</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -5458,11 +5458,11 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-939854628749004801</t>
+          <t>t-1029396532313968640</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -5471,24 +5471,24 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-834760589746569216</t>
+          <t>t-1029397392343425024</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-841401006797815808</t>
+          <t>t-1029408763877498885</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -5497,11 +5497,11 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-861539001962041345</t>
+          <t>t-1029408838305361921</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -5510,7 +5510,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-854163806288834560</t>
+          <t>t-1029566349918527488</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,7 +5523,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-891439389787774978</t>
+          <t>t-911704954636824576</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,7 +5536,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-891452469061996544</t>
+          <t>t-843607928133292033</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,20 +5549,20 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-951198867181236228</t>
+          <t>t-1016293496980955136</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-877327075954245633</t>
+          <t>t-764984507686490112</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,11 +5575,11 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-881979226697740288</t>
+          <t>t-768829814824247296</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -5588,7 +5588,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-1052284815779622917</t>
+          <t>t-768861970195881986</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,7 +5601,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-1052565742183272454</t>
+          <t>t-768886684955975680</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,7 +5614,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-1052712831517450241</t>
+          <t>t-769194684576960513</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,24 +5627,24 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-955145334002417666</t>
+          <t>t-1032899444918898688</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-1041752836835614720</t>
+          <t>t-1042371802121596928</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -5653,7 +5653,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-1042065710745309186</t>
+          <t>t-788788619779665920</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,11 +5666,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-1043080309376466944</t>
+          <t>t-796435007673946112</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-1043179210905464832</t>
+          <t>t-796529318373584896</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,7 +5692,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-519240969838166016</t>
+          <t>t-796701113995104256</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,11 +5705,11 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-542806015075713026</t>
+          <t>t-796745584795389952</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -5718,20 +5718,20 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-881960500829016064</t>
+          <t>t-817388602090987520</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-898367654507032576</t>
+          <t>t-830540407763300352</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,33 +5744,33 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-965605976698126341</t>
+          <t>t-891439389787774978</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-1019582623679696898</t>
+          <t>t-891452469061996544</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-1022200671666401281</t>
+          <t>t-951198867181236228</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,11 +5783,11 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-652079150321270784</t>
+          <t>t-966639239407525888</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -5796,33 +5796,33 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-652171720393101312</t>
+          <t>t-881979226697740288</t>
         </is>
       </c>
       <c r="B413" t="n">
         <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-773146400129441792</t>
+          <t>t-894457279076020224</t>
         </is>
       </c>
       <c r="B414" t="n">
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-984081755006259201</t>
+          <t>t-961482044650930177</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,11 +5835,11 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-519900708980948992</t>
+          <t>t-542806015075713026</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5848,7 +5848,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-676836902981513216</t>
+          <t>t-588767869539733506</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-635444360306368512</t>
+          <t>t-616316575658807296</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,24 +5874,24 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-1057306605287550976</t>
+          <t>t-673357306764140544</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-1057548272053698560</t>
+          <t>t-927695512287043584</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
         <v>1</v>
@@ -5900,11 +5900,11 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-832598430291730433</t>
+          <t>t-954911597251657728</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
         <v>1</v>
@@ -5913,11 +5913,11 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-884450764084662272</t>
+          <t>t-965605976698126341</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5926,20 +5926,20 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-884455668140445696</t>
+          <t>t-970747848747778048</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-884457897043927040</t>
+          <t>t-513212132176175105</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,33 +5952,33 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-884462539458977792</t>
+          <t>t-652079150321270784</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-955489372547305472</t>
+          <t>t-652171720393101312</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-955838886860787712</t>
+          <t>t-776037646023925760</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,11 +5991,11 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-956166896012939265</t>
+          <t>t-804010972331524096</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
         <v>1</v>
@@ -6004,20 +6004,20 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-957342329127473158</t>
+          <t>t-819436418263031808</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-580349296182198273</t>
+          <t>t-953177789628407808</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6030,7 +6030,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-595202959648096256</t>
+          <t>t-953520796361744384</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,46 +6043,46 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-534007858804056066</t>
+          <t>t-519900708980948992</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-538674754086244353</t>
+          <t>t-674956056209063937</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-984048304144166912</t>
+          <t>t-522926675542421504</t>
         </is>
       </c>
       <c r="B434" t="n">
         <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-984354039067529216</t>
+          <t>t-699600707318587392</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,46 +6095,46 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-1027585082050207745</t>
+          <t>t-615884908238651393</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-1049943076859461632</t>
+          <t>t-909677183328751616</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-538736663154135040</t>
+          <t>t-529740815221153793</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-642582982285504512</t>
+          <t>t-627009098568073216</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,20 +6147,20 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-653264904581984256</t>
+          <t>t-819866466162012160</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-653992755027386368</t>
+          <t>t-965860574339923968</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,11 +6173,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-913063437118341121</t>
+          <t>t-534007858804056066</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -6186,7 +6186,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-950088164777123841</t>
+          <t>t-541965663666184192</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,33 +6199,33 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-950818741209747456</t>
+          <t>t-1051891605035241474</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-951169520584024064</t>
+          <t>t-538959622858883072</t>
         </is>
       </c>
       <c r="B445" t="n">
         <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-951600654866317313</t>
+          <t>t-540907891566575616</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,7 +6238,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-951687956045156352</t>
+          <t>t-541174080833978368</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,7 +6251,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-954338199610019841</t>
+          <t>t-544508576757477376</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,24 +6264,24 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-954407598069084160</t>
+          <t>t-544546124984762370</t>
         </is>
       </c>
       <c r="B449" t="n">
         <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-954798702530412546</t>
+          <t>t-544574124832468992</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -6290,20 +6290,20 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-955111272852414464</t>
+          <t>t-544578399596187648</t>
         </is>
       </c>
       <c r="B451" t="n">
         <v>1</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-955374632034594816</t>
+          <t>t-544615900180393984</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,7 +6316,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-955380505121259520</t>
+          <t>t-544793457190268928</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,11 +6329,11 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-955409675251482624</t>
+          <t>t-544806009018265601</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -6342,20 +6342,20 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-955739643634421760</t>
+          <t>t-545012520793436160</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-955742558189162496</t>
+          <t>t-545215683404267523</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,20 +6368,20 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-955766281730445313</t>
+          <t>t-577791187240787968</t>
         </is>
       </c>
       <c r="B457" t="n">
         <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-955807241533304833</t>
+          <t>t-578574154607280128</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,46 +6394,46 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-956101750120857601</t>
+          <t>t-691624168824115200</t>
         </is>
       </c>
       <c r="B459" t="n">
         <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-956220929067151360</t>
+          <t>t-691706624386404353</t>
         </is>
       </c>
       <c r="B460" t="n">
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-956413340225589248</t>
+          <t>t-770572723777105920</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-956438932681523200</t>
+          <t>t-809171890690523137</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,37 +6446,37 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-956447631714279424</t>
+          <t>t-834770863664795650</t>
         </is>
       </c>
       <c r="B463" t="n">
         <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-956464588559671297</t>
+          <t>t-836980367781396480</t>
         </is>
       </c>
       <c r="B464" t="n">
         <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-956513066228834304</t>
+          <t>t-925333063336321024</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
         <v>0</v>
@@ -6485,11 +6485,11 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-962342450219094016</t>
+          <t>t-1006399568249008128</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
         <v>0</v>
@@ -6498,20 +6498,20 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-962358038081523713</t>
+          <t>t-1006422910762995712</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-962393573927870466</t>
+          <t>t-1006422931839299584</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,11 +6524,11 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-965524750264135680</t>
+          <t>t-1006427045709180929</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -6537,24 +6537,24 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-966320851678318593</t>
+          <t>t-1006463635693203456</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-967380419707535360</t>
+          <t>t-1057165607152562176</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -6563,7 +6563,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-977899948724379649</t>
+          <t>t-800633887386988544</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -6576,20 +6576,20 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-987423120817643520</t>
+          <t>t-557320938375905282</t>
         </is>
       </c>
       <c r="B473" t="n">
         <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-993438566914101248</t>
+          <t>t-623733200322449409</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,7 +6602,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-1038002421543391232</t>
+          <t>t-629936150220685312</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,72 +6615,72 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-542716499115642881</t>
+          <t>t-962370594363838464</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-549859905231142914</t>
+          <t>t-567369806647951362</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-652506002957422592</t>
+          <t>t-567639888489500672</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-764828802384007168</t>
+          <t>t-1000392026742034432</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-846728089912643588</t>
+          <t>t-1000411846237675521</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-552766016325840896</t>
+          <t>t-1000414273863069696</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,24 +6693,24 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-560682074529484800</t>
+          <t>t-1000416714763505664</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-623733200322449409</t>
+          <t>t-670699425879191552</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -6719,20 +6719,20 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-699529516008476673</t>
+          <t>t-861227956118716416</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>0</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-987343892633747456</t>
+          <t>t-988840187785568257</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,37 +6745,37 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-1034815239219539970</t>
+          <t>t-1003856366128259073</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-657116242692734976</t>
+          <t>t-581115572282376192</t>
         </is>
       </c>
       <c r="B487" t="n">
         <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-979424136656125952</t>
+          <t>t-957917970390450177</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" t="n">
         <v>0</v>
@@ -6784,7 +6784,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-1000392026742034432</t>
+          <t>t-590431507967299584</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,7 +6797,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-1000411846237675521</t>
+          <t>t-743692015158726656</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,7 +6810,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-1000414273863069696</t>
+          <t>t-743726128003588096</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,7 +6823,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-1000416714763505664</t>
+          <t>t-942758921533624320</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,33 +6836,33 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-570985250324656128</t>
+          <t>t-801458708786151425</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-571078007407775744</t>
+          <t>t-608642817427156992</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-571808211742814209</t>
+          <t>t-613277694457856004</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,11 +6875,11 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-575707186204180480</t>
+          <t>t-916986223478140928</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -6888,7 +6888,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-888068991020929025</t>
+          <t>t-997420355043102720</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,33 +6901,33 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-1024201138277638144</t>
+          <t>t-631869539597336576</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-580746776262545409</t>
+          <t>t-632875946828255232</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-760176410539528192</t>
+          <t>t-633506882188021761</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,20 +6940,20 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-764514429736132609</t>
+          <t>t-849766480828878849</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-764618483195838464</t>
+          <t>t-1032956238051659778</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,11 +6966,11 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-993886363249455104</t>
+          <t>t-1035170375703961601</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C503" t="n">
         <v>0</v>
@@ -6979,11 +6979,11 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-1003856366128259073</t>
+          <t>t-1035201829989056512</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
         <v>0</v>
@@ -6992,11 +6992,11 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-581115572282376192</t>
+          <t>t-1035614467998998530</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C505" t="n">
         <v>1</v>
@@ -7005,20 +7005,20 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-583486848426713088</t>
+          <t>t-1006630570447777793</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-586494775089442816</t>
+          <t>t-652058053697765376</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,11 +7031,11 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-817303376253882368</t>
+          <t>t-653076415596888064</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
         <v>1</v>
@@ -7044,33 +7044,33 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-962759977394991104</t>
+          <t>t-666556746308198401</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-590431507967299584</t>
+          <t>t-676501548063657984</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-737572670372339712</t>
+          <t>t-708088836748910592</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,11 +7083,11 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-690751741676142592</t>
+          <t>t-734423204488445952</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" t="n">
         <v>0</v>
@@ -7096,20 +7096,20 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-892583343426072576</t>
+          <t>t-741709377703411712</t>
         </is>
       </c>
       <c r="B513" t="n">
         <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-956419595136585729</t>
+          <t>t-1062323949680373760</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-720146113794183169</t>
+          <t>t-737558350011867138</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,7 +7135,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-1050165943790460929</t>
+          <t>t-738417908926320643</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,46 +7148,46 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-800696529770151938</t>
+          <t>t-738664460173381632</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-601387987851677696</t>
+          <t>t-738019407536984064</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-601436583682703361</t>
+          <t>t-738062401308917760</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-608642817427156992</t>
+          <t>t-738968020773703680</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,20 +7200,20 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-880840050245849088</t>
+          <t>t-739102239302770689</t>
         </is>
       </c>
       <c r="B521" t="n">
         <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-916986223478140928</t>
+          <t>t-739132972742418432</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,11 +7226,11 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-618340855657721856</t>
+          <t>t-739365982360178688</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
         <v>0</v>
@@ -7239,11 +7239,11 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-619208680349765633</t>
+          <t>t-739454625393324032</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
         <v>0</v>
@@ -7252,33 +7252,33 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-740216200379158528</t>
+          <t>t-860462128263811072</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-740233298862080000</t>
+          <t>t-743384229497679872</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-740234615814819840</t>
+          <t>t-748138953241464832</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,37 +7291,37 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-740250007081766912</t>
+          <t>t-793504441022504960</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-740302081416962049</t>
+          <t>t-819911710349922305</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-849766480828878849</t>
+          <t>t-831171283400409088</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C530" t="n">
         <v>1</v>
@@ -7330,7 +7330,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-1006630570447777793</t>
+          <t>t-834984907881525249</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,11 +7343,11 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-661463139213565952</t>
+          <t>t-862319925528023040</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
         <v>0</v>
@@ -7356,24 +7356,24 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-910016271554576384</t>
+          <t>t-862320640791121920</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-859792354395533312</t>
+          <t>t-989189175357276160</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C534" t="n">
         <v>1</v>
@@ -7382,11 +7382,11 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-860626885302202369</t>
+          <t>t-1019231079817973760</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
         <v>0</v>
@@ -7395,7 +7395,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-861365904025714688</t>
+          <t>t-887813365304705024</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,11 +7408,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-861657024731467783</t>
+          <t>t-904822909704822785</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C537" t="n">
         <v>1</v>
@@ -7421,20 +7421,20 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-861897864632578048</t>
+          <t>t-905976569503592449</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-862094425949917185</t>
+          <t>t-906394228602949632</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,33 +7447,33 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-862663540179701760</t>
+          <t>t-906936222282547201</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-1005827335977885696</t>
+          <t>t-906965286787710976</t>
         </is>
       </c>
       <c r="B541" t="n">
         <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-692403922451992576</t>
+          <t>t-907173357510184965</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,11 +7486,11 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-715202576552169472</t>
+          <t>t-907196691270569985</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
         <v>0</v>
@@ -7499,20 +7499,20 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-897572628667478020</t>
+          <t>t-953919004132986880</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-1062323949680373760</t>
+          <t>t-955559981331419136</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -7525,11 +7525,11 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-737563920496349185</t>
+          <t>t-988323500330045442</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C546" t="n">
         <v>1</v>
@@ -7538,11 +7538,11 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-1006483455209766912</t>
+          <t>t-1028077071480832000</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C547" t="n">
         <v>0</v>
@@ -7551,7 +7551,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-1006781895278055424</t>
+          <t>t-494327833263874048</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,98 +7564,98 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-1006804114234322945</t>
+          <t>t-950875222734929921</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-884308996835991554</t>
+          <t>t-950925554487738369</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-933719239126642689</t>
+          <t>t-590545916886659072</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-956210090935312384</t>
+          <t>t-673149443068309504</t>
         </is>
       </c>
       <c r="B552" t="n">
         <v>1</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-956914853922459649</t>
+          <t>t-676725475671085057</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-957307123943256064</t>
+          <t>t-678069780989870080</t>
         </is>
       </c>
       <c r="B554" t="n">
         <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-957730126799802368</t>
+          <t>t-845604671851057152</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-743816866171326464</t>
+          <t>t-904503608246362112</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,7 +7668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-746386418465914880</t>
+          <t>t-498746062224375809</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,46 +7681,46 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-748138953241464832</t>
+          <t>t-499104320717996032</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-754249103434022912</t>
+          <t>t-512537797442273280</t>
         </is>
       </c>
       <c r="B559" t="n">
         <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-792319235351535616</t>
+          <t>t-532541340023017473</t>
         </is>
       </c>
       <c r="B560" t="n">
         <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-844564313012670464</t>
+          <t>t-550997963590610944</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,7 +7733,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-854059785049788419</t>
+          <t>t-551059868657152002</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,59 +7746,59 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-859444598309097473</t>
+          <t>t-551164779646038017</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-859536182866317312</t>
+          <t>t-552328482282553344</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-883552231022366723</t>
+          <t>t-552381413899898881</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-1003312973887270917</t>
+          <t>t-552754433155928064</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-1003367321245798400</t>
+          <t>t-552860760968138752</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,7 +7811,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-1003369104735113216</t>
+          <t>t-552960294360977408</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,24 +7824,24 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-1003387066909167617</t>
+          <t>t-553046169975148544</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-1003393307597312000</t>
+          <t>t-553111267569713154</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
         <v>1</v>
@@ -7850,20 +7850,20 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-1003471542783823872</t>
+          <t>t-553535305601392640</t>
         </is>
       </c>
       <c r="B571" t="n">
         <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-1003531171559628800</t>
+          <t>t-658803849289990144</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,11 +7876,11 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-1003538396285947905</t>
+          <t>t-659014102774325248</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C573" t="n">
         <v>1</v>
@@ -7889,7 +7889,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-1003544511115603973</t>
+          <t>t-683238954309566464</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,33 +7902,33 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-1003657726029975553</t>
+          <t>t-683901242314067968</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-1003966949058056192</t>
+          <t>t-686071224749821953</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-953922137156411392</t>
+          <t>t-719019371499130881</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,20 +7941,20 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-981841496902197248</t>
+          <t>t-740084104088199168</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-992783370114433024</t>
+          <t>t-755613145079484416</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-1004723222363955200</t>
+          <t>t-815395045314560000</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,20 +7980,20 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-565143761131671552</t>
+          <t>t-815855888129028096</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-676725475671085057</t>
+          <t>t-815865821570289668</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,11 +8006,11 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-898971629665099776</t>
+          <t>t-815882427159678976</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C583" t="n">
         <v>1</v>
@@ -8019,7 +8019,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-498746062224375809</t>
+          <t>t-815960345336545280</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,11 +8032,11 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-499104320717996032</t>
+          <t>t-816280699388841984</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
         <v>0</v>
@@ -8045,20 +8045,20 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-500549350234554368</t>
+          <t>t-865948979183222784</t>
         </is>
       </c>
       <c r="B586" t="n">
         <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-549142719973445632</t>
+          <t>t-697693466298552321</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,46 +8071,46 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-549750044099088384</t>
+          <t>t-697911341554610176</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-549858427787153410</t>
+          <t>t-710310372985741313</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-549861279825817601</t>
+          <t>t-762938358486052865</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>0</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-550997963590610944</t>
+          <t>t-823758777857908736</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-551059868657152002</t>
+          <t>t-823809561622695937</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,50 +8136,50 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-551164779646038017</t>
+          <t>t-823868915621052416</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-552328482282553344</t>
+          <t>t-824113067696930816</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-552381413899898881</t>
+          <t>t-824154025864167424</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-552754433155928064</t>
+          <t>t-824160171534467072</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
         <v>0</v>
@@ -8188,20 +8188,20 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-552860760968138752</t>
+          <t>t-825053893184753664</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-552960294360977408</t>
+          <t>t-825136994833428480</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,59 +8214,59 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-553046169975148544</t>
+          <t>t-825930607427416064</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>0</v>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-553111267569713154</t>
+          <t>t-864437375618830336</t>
         </is>
       </c>
       <c r="B600" t="n">
         <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-553535305601392640</t>
+          <t>t-985916719981060097</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-579789832131575808</t>
+          <t>t-985984041508720641</t>
         </is>
       </c>
       <c r="B602" t="n">
         <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-580874616324943872</t>
+          <t>t-1015491573092528128</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,20 +8279,20 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-627052129107087360</t>
+          <t>t-503088287381082112</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-627062516095455232</t>
+          <t>t-519137345065320448</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,11 +8305,11 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-627070573118488576</t>
+          <t>t-527780384159703040</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606" t="n">
         <v>1</v>
@@ -8318,7 +8318,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-627075912631083008</t>
+          <t>t-532513757776183296</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-627076573653561344</t>
+          <t>t-536372518622212096</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-674391856298385408</t>
+          <t>t-536830333530804225</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,20 +8357,20 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-674458539629219844</t>
+          <t>t-536843974086897664</t>
         </is>
       </c>
       <c r="B610" t="n">
         <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-676377478168862721</t>
+          <t>t-580217985706528769</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,24 +8383,24 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-677293991713308673</t>
+          <t>t-585340196557692928</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>1</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-678077110070566912</t>
+          <t>t-587184590302814208</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-683238954309566464</t>
+          <t>t-587194258815221760</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-683901242314067968</t>
+          <t>t-587194893052747777</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,20 +8435,20 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-730666173340209152</t>
+          <t>t-645905787584274433</t>
         </is>
       </c>
       <c r="B616" t="n">
         <v>0</v>
       </c>
       <c r="C616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-875288006172831744</t>
+          <t>t-645928760433246209</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-890567544695906304</t>
+          <t>t-645952188204761088</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,33 +8474,33 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-970475324591915008</t>
+          <t>t-646249606892797957</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-978263707544305664</t>
+          <t>t-659219094017708032</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-511340405753786369</t>
+          <t>t-685773216275533824</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,24 +8513,24 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-675258412049956865</t>
+          <t>t-732021013433724928</t>
         </is>
       </c>
       <c r="B622" t="n">
         <v>1</v>
       </c>
       <c r="C622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-728392912636149760</t>
+          <t>t-732494989838540800</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C623" t="n">
         <v>1</v>
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-806390063244410880</t>
+          <t>t-732496065941798912</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,11 +8552,11 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-806499176066453505</t>
+          <t>t-784943243364487168</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C625" t="n">
         <v>1</v>
@@ -8565,20 +8565,20 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-864437375618830336</t>
+          <t>t-785071804276576256</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-914680114595602432</t>
+          <t>t-786121283209564160</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-948796201708675072</t>
+          <t>t-787201722892455936</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-948886764244033537</t>
+          <t>t-787228854490243072</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-527780384159703040</t>
+          <t>t-807384780572459008</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-536372518622212096</t>
+          <t>t-828522614863785984</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,33 +8643,33 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-536830333530804225</t>
+          <t>t-842271490141634560</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-536843974086897664</t>
+          <t>t-842322052103122944</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-581777426016956417</t>
+          <t>t-842905808266448896</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-685773216275533824</t>
+          <t>t-842910185718931456</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,11 +8695,11 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-718078465698881536</t>
+          <t>t-863988808966053888</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C636" t="n">
         <v>1</v>
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-718738885862232064</t>
+          <t>t-912888084739641344</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-718790966774083584</t>
+          <t>t-913276391470227456</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,11 +8734,11 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-764804167068024832</t>
+          <t>t-928491239808233473</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C639" t="n">
         <v>1</v>
@@ -8747,11 +8747,11 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-792955986956824576</t>
+          <t>t-928882270554877953</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C640" t="n">
         <v>1</v>
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-793029205319491584</t>
+          <t>t-928900503953588224</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-793055195232018432</t>
+          <t>t-928967839649804289</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-912888084739641344</t>
+          <t>t-929323628226686976</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,37 +8799,37 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-913276391470227456</t>
+          <t>t-931079635575586816</t>
         </is>
       </c>
       <c r="B644" t="n">
         <v>1</v>
       </c>
       <c r="C644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-924905228415193088</t>
+          <t>t-931432910795653120</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-928491239808233473</t>
+          <t>t-932133115748696064</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
         <v>0</v>
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-928882270554877953</t>
+          <t>t-932454853443334144</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,20 +8851,20 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-928900503953588224</t>
+          <t>t-965199790966415360</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-928967839649804289</t>
+          <t>t-973099299910250497</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,33 +8877,33 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-929323628226686976</t>
+          <t>t-1024894521568448513</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-965199790966415360</t>
+          <t>t-723687727468683264</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-1061598368164528128</t>
+          <t>t-723764446498152448</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-1061625768696930304</t>
+          <t>t-930049646444945408</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-1061782167494320130</t>
+          <t>t-930646694097645568</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-1062219458046058496</t>
+          <t>t-528210205746532352</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,33 +8955,33 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-831995329318772736</t>
+          <t>t-528777132097298433</t>
         </is>
       </c>
       <c r="B656" t="n">
         <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-664725934935707650</t>
+          <t>t-528826156708278272</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-1032843605826621440</t>
+          <t>t-528877062564503552</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,20 +8994,20 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-565428032685740033</t>
+          <t>t-529071458085900288</t>
         </is>
       </c>
       <c r="B659" t="n">
         <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-694164443224154112</t>
+          <t>t-529085805034094593</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-694343886626394113</t>
+          <t>t-529166911674671104</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-694445663426207744</t>
+          <t>t-529236028171620353</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-716900054133399553</t>
+          <t>t-529319778377166848</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-777029515289563136</t>
+          <t>t-530135697877766146</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-777052253362335745</t>
+          <t>t-530218899833241600</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,20 +9085,20 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-919610638351003649</t>
+          <t>t-592295516517502976</t>
         </is>
       </c>
       <c r="B666" t="n">
         <v>1</v>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-919611818183503872</t>
+          <t>t-689784474884648961</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,11 +9111,11 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-919614704967757825</t>
+          <t>t-1028122158990381056</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C668" t="n">
         <v>1</v>
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-919712337681985537</t>
+          <t>t-521700184376770560</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-919728404907167744</t>
+          <t>t-523431319012139009</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-919751765871886336</t>
+          <t>t-551339874838908928</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,11 +9163,11 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-919766847666274304</t>
+          <t>t-780295387017949184</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
         <v>0</v>
@@ -9176,24 +9176,24 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-919943414766063617</t>
+          <t>t-525880451999617025</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-920179252292739072</t>
+          <t>t-527311291191263232</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C674" t="n">
         <v>1</v>
@@ -9202,11 +9202,11 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-920416544319926272</t>
+          <t>t-836878014587744257</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C675" t="n">
         <v>1</v>
@@ -9215,11 +9215,11 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-564676313139531776</t>
+          <t>t-532101195737735168</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C676" t="n">
         <v>1</v>
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-564736068306878464</t>
+          <t>t-532807839664730113</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,20 +9241,20 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-852718859765202945</t>
+          <t>t-534323907642142720</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-852739972473868290</t>
+          <t>t-558428892898131968</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-534644762553229312</t>
+          <t>t-558596887519850496</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,50 +9280,50 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-535211715454332929</t>
+          <t>t-666809196977909760</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-535234909267578880</t>
+          <t>t-694769781573050368</t>
         </is>
       </c>
       <c r="B682" t="n">
         <v>1</v>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-535323782999977985</t>
+          <t>t-699788036561743872</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-536050657384333312</t>
+          <t>t-852718859765202945</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C684" t="n">
         <v>1</v>
@@ -9332,20 +9332,20 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-536689861890035712</t>
+          <t>t-852739972473868290</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-544711019629907968</t>
+          <t>t-924811540154540032</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,11 +9358,11 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-544769671799394304</t>
+          <t>t-924943312192073729</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C687" t="n">
         <v>1</v>
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-544813894037147648</t>
+          <t>t-562992622130954243</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-545169541052243968</t>
+          <t>t-670770027604213760</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,11 +9397,11 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-550823263941574657</t>
+          <t>t-709944298301628416</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-803451448700780544</t>
+          <t>t-723151439586013184</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-803454039333556224</t>
+          <t>t-773077201063407617</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,46 +9436,46 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-803455995494027264</t>
+          <t>t-779194196724887553</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-803466221962215424</t>
+          <t>t-547361002212188160</t>
         </is>
       </c>
       <c r="B694" t="n">
         <v>1</v>
       </c>
       <c r="C694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-803470959600467968</t>
+          <t>t-734985227739619329</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-816403303852425216</t>
+          <t>t-796490215078711296</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,20 +9488,20 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-822808230711721984</t>
+          <t>t-801684041787273216</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-562992622130954243</t>
+          <t>t-814411097864159233</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,33 +9514,33 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-708854826730295296</t>
+          <t>t-814414402203983872</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-709944298301628416</t>
+          <t>t-814417111921479680</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-737185619730780161</t>
+          <t>t-814418757657296896</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,20 +9553,20 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-745418927845453825</t>
+          <t>t-814543705935736832</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-577656940282540032</t>
+          <t>t-1037871134488707072</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-666482399069343745</t>
+          <t>t-1037879643695529985</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,7 +9592,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-820399938416754688</t>
+          <t>t-1037893136482103296</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,7 +9605,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-547361002212188160</t>
+          <t>t-1037997508973060096</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,20 +9618,20 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-966644863226732544</t>
+          <t>t-941661763132579840</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-966649635170238465</t>
+          <t>t-556107639625510912</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,20 +9644,20 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-941530453147836416</t>
+          <t>t-579496758595584000</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-1027038929319411712</t>
+          <t>t-826783220507168768</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,11 +9670,11 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-1027057881365901312</t>
+          <t>t-895185499131961344</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-1027179632922046467</t>
+          <t>t-563225583400648704</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-579496758595584000</t>
+          <t>t-563242661562576896</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-704474821959163905</t>
+          <t>t-564304402253508608</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,20 +9722,20 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-832028212376985600</t>
+          <t>t-754793839844397056</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-832064333504933888</t>
+          <t>t-642718104875732992</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,24 +9748,24 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-962542177514500096</t>
+          <t>t-674136729771577344</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-561946682707812352</t>
+          <t>t-777104599379423233</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-563242661562576896</t>
+          <t>t-777106884058763264</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,11 +9787,11 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-564304402253508608</t>
+          <t>t-572370799971053568</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C720" t="n">
         <v>1</v>
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-775600763481436160</t>
+          <t>t-640851401892065280</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-805321168580395008</t>
+          <t>t-675601382867537920</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-584288298249531392</t>
+          <t>t-676436379425894400</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,20 +9839,20 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-702366811925438465</t>
+          <t>t-877794875583934464</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-718718501679017984</t>
+          <t>t-812509278762242048</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,33 +9865,33 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-998772384076320768</t>
+          <t>t-697592269315010562</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-998825906733920257</t>
+          <t>t-697721034691096580</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-610619808913076224</t>
+          <t>t-785264263749308416</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-639809419102937088</t>
+          <t>t-785310124797669377</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,20 +9917,20 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-877794875583934464</t>
+          <t>t-785316828025421824</t>
         </is>
       </c>
       <c r="B730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-820218394255339521</t>
+          <t>t-785325402981924866</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-964014223184375808</t>
+          <t>t-785347096031268864</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -9956,7 +9956,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-798490523820380160</t>
+          <t>t-833862725059031044</t>
         </is>
       </c>
       <c r="B733" t="n">
